--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-18.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-18.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,8 +433,8 @@
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="35" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -895,12 +895,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -910,32 +910,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Thomas Haugh</t>
+          <t>Billy Richmond III</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SC@FLA</t>
+          <t>ARK@ALA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 18th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -950,180 +950,180 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>Labaron Philon Jr.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SC@FLA</t>
+          <t>ARK@ALA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 18th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Micah Handlogten</t>
+          <t>Nate Ament</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SC@FLA</t>
+          <t>OU@TENN</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 18th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1132,21 +1132,21 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1156,35 +1156,35 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>UGA@UK</t>
+          <t>OU@TENN</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 18th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1196,104 +1196,104 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>UGA@UK</t>
+          <t>MISS@TA&amp;M</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 18th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1320,17 +1320,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Marquel Sutton</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>LSU@TEX</t>
+          <t>SC@FLA</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1339,49 +1339,49 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="n">
         <v>5</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>5</v>
-      </c>
-      <c r="P11" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>6</v>
-      </c>
-      <c r="R11" t="n">
-        <v>10</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2</v>
-      </c>
       <c r="U11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1392,22 +1392,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Alex Condon</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1421,49 +1421,49 @@
         </is>
       </c>
       <c r="H12" t="n">
+        <v>16</v>
+      </c>
+      <c r="I12" t="n">
         <v>22</v>
       </c>
-      <c r="I12" t="n">
-        <v>20</v>
-      </c>
       <c r="J12" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>4</v>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q12" t="n">
         <v>6</v>
       </c>
-      <c r="O12" t="n">
+      <c r="R12" t="n">
+        <v>16</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="n">
         <v>3</v>
       </c>
-      <c r="P12" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>7</v>
-      </c>
-      <c r="R12" t="n">
-        <v>14</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1</v>
-      </c>
       <c r="U12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1474,27 +1474,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>UGA@UK</t>
+          <t>SC@FLA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1503,49 +1503,49 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I13" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="Q13" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1566,17 +1566,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Boogie Fland</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SC@FLA</t>
+          <t>UGA@UK</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1585,85 +1585,85 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P14" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R14" t="n">
+        <v>11</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="n">
+        <v>8</v>
+      </c>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
         <v>7</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Myles Stute</t>
+          <t>Ja'Kobi Gillespie</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SC@FLA</t>
+          <t>OU@TENN</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 18th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1688,10 +1688,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1715,12 +1715,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1730,56 +1730,56 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>UGA@UK</t>
+          <t>ARK@ALA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 18th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1788,80 +1788,80 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>UGA@UK</t>
+          <t>ARK@ALA</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 18th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1870,21 +1870,21 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1894,38 +1894,38 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Felix Okpara</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>LSU@TEX</t>
+          <t>OU@TENN</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 18th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1934,39 +1934,39 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1976,32 +1976,32 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>LSU@TEX</t>
+          <t>OU@TENN</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 18th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2010,22 +2010,22 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2034,10 +2034,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2048,27 +2048,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SC@FLA</t>
+          <t>UGA@UK</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2077,43 +2077,43 @@
         </is>
       </c>
       <c r="H20" t="n">
+        <v>18</v>
+      </c>
+      <c r="I20" t="n">
+        <v>18</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>6</v>
+      </c>
+      <c r="R20" t="n">
+        <v>11</v>
+      </c>
+      <c r="S20" t="n">
+        <v>6</v>
+      </c>
+      <c r="T20" t="n">
         <v>10</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>7</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>5</v>
-      </c>
-      <c r="O20" t="n">
-        <v>3</v>
-      </c>
-      <c r="P20" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>7</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
-      <c r="T20" t="n">
-        <v>4</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2125,12 +2125,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2140,56 +2140,56 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Rueben Chinyelu</t>
+          <t>Aden Holloway</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SC@FLA</t>
+          <t>ARK@ALA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 18th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2198,92 +2198,92 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>UGA@UK</t>
+          <t>MISS@TA&amp;M</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 18th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>26</v>
+        <v>-1</v>
       </c>
       <c r="I22" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2304,12 +2304,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2323,38 +2323,38 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I23" t="n">
         <v>21</v>
       </c>
       <c r="J23" t="n">
+        <v>5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>5</v>
+      </c>
+      <c r="P23" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>6</v>
+      </c>
+      <c r="R23" t="n">
         <v>10</v>
       </c>
-      <c r="K23" t="n">
-        <v>2</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3</v>
-      </c>
-      <c r="O23" t="n">
-        <v>4</v>
-      </c>
-      <c r="P23" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>7</v>
-      </c>
-      <c r="R23" t="n">
-        <v>12</v>
-      </c>
       <c r="S23" t="n">
         <v>1</v>
       </c>
@@ -2362,10 +2362,10 @@
         <v>2</v>
       </c>
       <c r="U23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -2376,27 +2376,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>UGA@UK</t>
+          <t>SC@FLA</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2408,46 +2408,46 @@
         <v>22</v>
       </c>
       <c r="I24" t="n">
+        <v>20</v>
+      </c>
+      <c r="J24" t="n">
+        <v>10</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3</v>
+      </c>
+      <c r="P24" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>7</v>
+      </c>
+      <c r="R24" t="n">
         <v>14</v>
       </c>
-      <c r="J24" t="n">
-        <v>2</v>
-      </c>
-      <c r="K24" t="n">
-        <v>8</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" t="n">
-        <v>2</v>
-      </c>
-      <c r="P24" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>4</v>
-      </c>
-      <c r="R24" t="n">
-        <v>7</v>
-      </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -2458,17 +2458,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2487,16 +2487,16 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="J25" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2505,31 +2505,31 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P25" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2550,12 +2550,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2569,37 +2569,37 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2632,17 +2632,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>LSU@TEX</t>
+          <t>SC@FLA</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2651,16 +2651,16 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2669,42 +2669,42 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="Q27" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2714,32 +2714,32 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Jaylen Carey</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>SC@FLA</t>
+          <t>OU@TENN</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 18th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2748,28 +2748,28 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R28" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2781,12 +2781,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2796,68 +2796,68 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>LSU@TEX</t>
+          <t>ARK@ALA</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 18th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,27 +2868,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>LSU@TEX</t>
+          <t>UGA@UK</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2900,35 +2900,35 @@
         <v>11</v>
       </c>
       <c r="I30" t="n">
+        <v>6</v>
+      </c>
+      <c r="J30" t="n">
+        <v>7</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
         <v>4</v>
       </c>
-      <c r="J30" t="n">
-        <v>3</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2</v>
-      </c>
-      <c r="M30" t="n">
-        <v>2</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>5</v>
-      </c>
-      <c r="P30" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" t="n">
-        <v>3</v>
-      </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
@@ -2936,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2960,17 +2960,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>LSU@TEX</t>
+          <t>UGA@UK</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2979,49 +2979,49 @@
         </is>
       </c>
       <c r="H31" t="n">
+        <v>21</v>
+      </c>
+      <c r="I31" t="n">
+        <v>14</v>
+      </c>
+      <c r="J31" t="n">
         <v>8</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2</v>
+      </c>
+      <c r="P31" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>6</v>
+      </c>
+      <c r="R31" t="n">
         <v>8</v>
       </c>
-      <c r="J31" t="n">
-        <v>3</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>2</v>
-      </c>
-      <c r="P31" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3042,17 +3042,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>UGA@UK</t>
+          <t>LSU@TEX</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -3061,49 +3061,49 @@
         </is>
       </c>
       <c r="H32" t="n">
+        <v>18</v>
+      </c>
+      <c r="I32" t="n">
+        <v>18</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
         <v>8</v>
       </c>
-      <c r="I32" t="n">
-        <v>4</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
+      <c r="S32" t="n">
         <v>3</v>
       </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2</v>
-      </c>
-      <c r="R32" t="n">
+      <c r="T32" t="n">
         <v>3</v>
       </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3124,17 +3124,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>SC@FLA</t>
+          <t>LSU@TEX</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3143,10 +3143,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J33" t="n">
         <v>3</v>
@@ -3158,34 +3158,34 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P33" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Q33" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R33" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3206,12 +3206,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Christ Essandoko</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3225,98 +3225,98 @@
         </is>
       </c>
       <c r="H34" t="n">
+        <v>10</v>
+      </c>
+      <c r="I34" t="n">
+        <v>9</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
         <v>7</v>
       </c>
-      <c r="I34" t="n">
-        <v>6</v>
-      </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5</v>
+      </c>
+      <c r="O34" t="n">
         <v>3</v>
       </c>
-      <c r="K34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
       <c r="P34" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R34" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>UGA@UK</t>
+          <t>ARK@ALA</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 18th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -3328,104 +3328,104 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>UGA@UK</t>
+          <t>OU@TENN</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 18th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3437,53 +3437,53 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>Amari Allen</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>SC@FLA</t>
+          <t>ARK@ALA</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 18th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -3492,22 +3492,22 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3524,27 +3524,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>LSU@TEX</t>
+          <t>SC@FLA</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3553,49 +3553,49 @@
         </is>
       </c>
       <c r="H38" t="n">
+        <v>28</v>
+      </c>
+      <c r="I38" t="n">
+        <v>15</v>
+      </c>
+      <c r="J38" t="n">
+        <v>17</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q38" t="n">
         <v>6</v>
       </c>
-      <c r="I38" t="n">
+      <c r="R38" t="n">
+        <v>11</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
         <v>4</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>4</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1</v>
-      </c>
-      <c r="O38" t="n">
-        <v>3</v>
-      </c>
-      <c r="P38" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2</v>
-      </c>
-      <c r="R38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3606,22 +3606,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3635,49 +3635,49 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J39" t="n">
         <v>5</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>6</v>
+      </c>
+      <c r="R39" t="n">
+        <v>9</v>
+      </c>
+      <c r="S39" t="n">
         <v>3</v>
       </c>
-      <c r="P39" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -3688,27 +3688,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>SC@FLA</t>
+          <t>LSU@TEX</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3717,49 +3717,49 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J40" t="n">
+        <v>10</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
         <v>3</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>4</v>
       </c>
       <c r="P40" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q40" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R40" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="S40" t="n">
         <v>1</v>
       </c>
       <c r="T40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -3770,7 +3770,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3780,17 +3780,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>LSU@TEX</t>
+          <t>UGA@UK</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3799,43 +3799,43 @@
         </is>
       </c>
       <c r="H41" t="n">
+        <v>22</v>
+      </c>
+      <c r="I41" t="n">
+        <v>14</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" t="n">
+        <v>8</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2</v>
+      </c>
+      <c r="P41" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q41" t="n">
         <v>4</v>
       </c>
-      <c r="I41" t="n">
-        <v>2</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1</v>
-      </c>
-      <c r="P41" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U41" t="n">
         <v>2</v>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3862,17 +3862,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Eli Sparkman</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>SC@FLA</t>
+          <t>UGA@UK</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3881,16 +3881,16 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -3902,28 +3902,28 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P42" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>1</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3944,17 +3944,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>UGA@UK</t>
+          <t>SC@FLA</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3963,13 +3963,13 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
         <v>1</v>
@@ -3981,77 +3981,77 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>SC@FLA</t>
+          <t>OU@TENN</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 18th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4063,13 +4063,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -4084,10 +4084,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4098,7 +4098,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4108,17 +4108,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>SC@FLA</t>
+          <t>LSU@TEX</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -4127,49 +4127,49 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I45" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O45" t="n">
+        <v>2</v>
+      </c>
+      <c r="P45" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>11</v>
+      </c>
+      <c r="R45" t="n">
+        <v>17</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="n">
+        <v>4</v>
+      </c>
+      <c r="U45" t="n">
         <v>3</v>
       </c>
-      <c r="P45" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2</v>
-      </c>
-      <c r="R45" t="n">
-        <v>7</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>2</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1</v>
-      </c>
       <c r="V45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -4180,7 +4180,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4190,17 +4190,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Nic Codie</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>LSU@TEX</t>
+          <t>SC@FLA</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -4209,43 +4209,43 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4257,37 +4257,37 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>UGA@UK</t>
+          <t>MISS@TA&amp;M</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 18th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -4300,10 +4300,10 @@
         <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -4312,16 +4312,16 @@
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -4339,77 +4339,77 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>UGA@UK</t>
+          <t>ARK@ALA</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 18th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="Q48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
@@ -4421,47 +4421,47 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>LSU@TEX</t>
+          <t>OU@TENN</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 18th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -4476,16 +4476,16 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -4518,17 +4518,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>UGA@UK</t>
+          <t>LSU@TEX</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -4537,49 +4537,49 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P50" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -4600,17 +4600,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Alex Kovatchev</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>SC@FLA</t>
+          <t>LSU@TEX</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4619,37 +4619,37 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P51" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -4682,17 +4682,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CJ Ingram</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>SC@FLA</t>
+          <t>LSU@TEX</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -4722,28 +4722,28 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P52" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q52" t="n">
         <v>3</v>
       </c>
-      <c r="Q52" t="n">
-        <v>0</v>
-      </c>
       <c r="R52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -4764,17 +4764,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>SC@FLA</t>
+          <t>UGA@UK</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4783,37 +4783,37 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -4846,17 +4846,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>UGA@UK</t>
+          <t>SC@FLA</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4865,43 +4865,43 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I54" t="n">
+        <v>10</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2</v>
+      </c>
+      <c r="O54" t="n">
+        <v>4</v>
+      </c>
+      <c r="P54" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q54" t="n">
         <v>5</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>1</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1</v>
-      </c>
-      <c r="P54" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>2</v>
       </c>
       <c r="R54" t="n">
         <v>8</v>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U54" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Nordin Kapic</t>
+          <t>Christ Essandoko</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4947,16 +4947,16 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
         <v>1</v>
@@ -4968,28 +4968,28 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
         <v>3</v>
       </c>
-      <c r="P55" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>0</v>
-      </c>
-      <c r="R55" t="n">
-        <v>2</v>
-      </c>
       <c r="S55" t="n">
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V55" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -5010,17 +5010,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Olivier Rioux</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>SC@FLA</t>
+          <t>UGA@UK</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -5029,16 +5029,16 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -5050,28 +5050,28 @@
         <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -5092,17 +5092,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>PJ Carter</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>LSU@TEX</t>
+          <t>UGA@UK</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -5111,43 +5111,43 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P57" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57" t="n">
         <v>0</v>
@@ -5174,12 +5174,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Viktor Mikic</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -5193,19 +5193,19 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -5214,28 +5214,28 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P58" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R58" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -5256,17 +5256,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>SC@FLA</t>
+          <t>LSU@TEX</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -5275,16 +5275,16 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J59" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -5296,28 +5296,28 @@
         <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P59" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S59" t="n">
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -5338,12 +5338,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -5357,13 +5357,13 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -5372,23 +5372,23 @@
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P60" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
         <v>3</v>
       </c>
-      <c r="Q60" t="n">
-        <v>0</v>
-      </c>
-      <c r="R60" t="n">
-        <v>1</v>
-      </c>
       <c r="S60" t="n">
         <v>0</v>
       </c>
@@ -5396,10 +5396,10 @@
         <v>1</v>
       </c>
       <c r="U60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -5420,7 +5420,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Alex Lloyd</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -5439,13 +5439,13 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
@@ -5460,28 +5460,28 @@
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P61" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U61" t="n">
         <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -5502,67 +5502,1953 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>Chendall Weaver</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>LSU@TEX</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Eli Sparkman</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>SC@FLA</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Kanon Catchings</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>UGA@UK</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+      <c r="I64" t="n">
+        <v>6</v>
+      </c>
+      <c r="J64" t="n">
+        <v>5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>3</v>
+      </c>
+      <c r="P64" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>11</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="n">
+        <v>5</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Hayden Assemian</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>SC@FLA</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Isaiah Brown</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>SC@FLA</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>3</v>
+      </c>
+      <c r="P66" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>7</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>2</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Nic Codie</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>LSU@TEX</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Jordan Ross</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>UGA@UK</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>2</v>
+      </c>
+      <c r="P68" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Kareem Stagg</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>UGA@UK</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>2</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2</v>
+      </c>
+      <c r="O69" t="n">
+        <v>3</v>
+      </c>
+      <c r="P69" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="n">
+        <v>5</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Rashad King</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>LSU@TEX</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>3</v>
+      </c>
+      <c r="P70" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Trent Noah</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>UGA@UK</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Alex Kovatchev</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>SC@FLA</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>CJ Ingram</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>SC@FLA</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Grant Polk</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>SC@FLA</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Jasper Johnson</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>UGA@UK</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>5</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1</v>
+      </c>
+      <c r="P75" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>8</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="n">
+        <v>5</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Nordin Kapic</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>SC@FLA</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>3</v>
+      </c>
+      <c r="P76" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Olivier Rioux</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>SC@FLA</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>PJ Carter</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>LSU@TEX</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Viktor Mikic</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>SC@FLA</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>1</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1</v>
+      </c>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>EJ Walker</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>SC@FLA</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" t="n">
+        <v>5</v>
+      </c>
+      <c r="P80" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>3</v>
+      </c>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Justin Bailey</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>UGA@UK</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Alex Lloyd</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>SC@FLA</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0</v>
+      </c>
+      <c r="V82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>Mazi Mosley</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>LSU</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>LSU@TEX</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>Final</t>
         </is>
       </c>
-      <c r="H62" t="n">
+      <c r="H83" t="n">
         <v>-2</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>1</v>
-      </c>
-      <c r="O62" t="n">
-        <v>1</v>
-      </c>
-      <c r="P62" t="n">
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" t="n">
+        <v>1</v>
+      </c>
+      <c r="P83" t="n">
         <v>6</v>
       </c>
-      <c r="Q62" t="n">
-        <v>0</v>
-      </c>
-      <c r="R62" t="n">
-        <v>1</v>
-      </c>
-      <c r="S62" t="n">
-        <v>0</v>
-      </c>
-      <c r="T62" t="n">
-        <v>1</v>
-      </c>
-      <c r="U62" t="n">
-        <v>0</v>
-      </c>
-      <c r="V62" t="n">
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Bishop Boswell</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>OU@TENN</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Wed, February 18th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>London Jemison</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>ARK@ALA</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Wed, February 18th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0</v>
+      </c>
+      <c r="V85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5617,7 +7503,7 @@
         <v>75</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -5643,7 +7529,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5653,10 +7539,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -5666,10 +7552,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -5679,10 +7565,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -5692,10 +7578,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-18.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-18.xlsx
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -1171,14 +1171,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>12:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H9" t="n">
+        <v>15</v>
+      </c>
+      <c r="I9" t="n">
         <v>12</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9</v>
       </c>
       <c r="J9" t="n">
         <v>5</v>
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
         <v>1</v>
@@ -1199,19 +1199,19 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>12:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -2155,41 +2155,41 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
         <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2483,14 +2483,14 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2505,25 +2505,25 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
         <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2632,68 +2632,68 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Aden Holloway</t>
+          <t>Keyshawn Hall</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ARK@ALA</t>
+          <t>AUB@MSST</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Final/2OT</t>
+          <t>10:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I27" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Q27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R27" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V27" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -2714,35 +2714,35 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Keyshawn Hall</t>
+          <t>Aden Holloway</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>AUB@MSST</t>
+          <t>ARK@ALA</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I28" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2751,31 +2751,31 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U28" t="n">
         <v>4</v>
       </c>
       <c r="V28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -2811,21 +2811,21 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>12:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H29" t="n">
+        <v>12</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" t="n">
         <v>7</v>
       </c>
-      <c r="I29" t="n">
-        <v>5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2</v>
-      </c>
-      <c r="K29" t="n">
-        <v>5</v>
-      </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -2893,11 +2893,11 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>12:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I30" t="n">
         <v>3</v>
@@ -2921,19 +2921,19 @@
         <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
       </c>
       <c r="R30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S30" t="n">
         <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -3057,18 +3057,18 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H32" t="n">
+        <v>7</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
         <v>5</v>
       </c>
-      <c r="I32" t="n">
-        <v>2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3</v>
-      </c>
       <c r="K32" t="n">
         <v>1</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>2</v>
       </c>
       <c r="P32" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -3795,14 +3795,14 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>12:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I41" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J41" t="n">
         <v>7</v>
@@ -3820,22 +3820,22 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P41" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R41" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U41" t="n">
         <v>3</v>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>12:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -4315,7 +4315,7 @@
         <v>2</v>
       </c>
       <c r="P47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
@@ -5025,53 +5025,53 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I56" t="n">
+        <v>12</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>3</v>
+      </c>
+      <c r="P56" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>6</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="n">
+        <v>5</v>
+      </c>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
         <v>4</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" t="n">
-        <v>2</v>
-      </c>
-      <c r="P56" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>1</v>
-      </c>
-      <c r="R56" t="n">
-        <v>3</v>
-      </c>
-      <c r="S56" t="n">
-        <v>1</v>
-      </c>
-      <c r="T56" t="n">
-        <v>2</v>
-      </c>
-      <c r="U56" t="n">
-        <v>1</v>
-      </c>
-      <c r="V56" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -5681,17 +5681,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I64" t="n">
         <v>35</v>
       </c>
       <c r="J64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K64" t="n">
         <v>2</v>
@@ -5709,19 +5709,19 @@
         <v>1</v>
       </c>
       <c r="P64" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q64" t="n">
         <v>13</v>
       </c>
       <c r="R64" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S64" t="n">
         <v>9</v>
       </c>
       <c r="T64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U64" t="n">
         <v>0</v>
@@ -6404,38 +6404,38 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>VAN@MIZ</t>
+          <t>AUB@MSST</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>10:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I73" t="n">
         <v>11</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -6447,7 +6447,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q73" t="n">
         <v>4</v>
@@ -6456,16 +6456,16 @@
         <v>9</v>
       </c>
       <c r="S73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -6486,68 +6486,68 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>AUB@MSST</t>
+          <t>VAN@MIZ</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>12:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I74" t="n">
+        <v>13</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K74" t="n">
+        <v>3</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>2</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1</v>
+      </c>
+      <c r="P74" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q74" t="n">
         <v>5</v>
       </c>
-      <c r="J74" t="n">
-        <v>2</v>
-      </c>
-      <c r="K74" t="n">
-        <v>3</v>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0</v>
-      </c>
-      <c r="N74" t="n">
-        <v>1</v>
-      </c>
-      <c r="O74" t="n">
-        <v>1</v>
-      </c>
-      <c r="P74" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>2</v>
-      </c>
       <c r="R74" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="S74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -6747,47 +6747,47 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I77" t="n">
         <v>10</v>
       </c>
       <c r="J77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
       <c r="M77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N77" t="n">
         <v>1</v>
       </c>
       <c r="O77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P77" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q77" t="n">
         <v>4</v>
       </c>
       <c r="R77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S77" t="n">
         <v>2</v>
       </c>
       <c r="T77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U77" t="n">
         <v>0</v>
@@ -6829,17 +6829,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>12:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I78" t="n">
         <v>6</v>
       </c>
       <c r="J78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K78" t="n">
         <v>2</v>
@@ -6848,22 +6848,22 @@
         <v>2</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78" t="n">
         <v>1</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P78" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q78" t="n">
         <v>2</v>
       </c>
       <c r="R78" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -6911,11 +6911,11 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>2</v>
@@ -6927,7 +6927,7 @@
         <v>1</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
@@ -6936,16 +6936,16 @@
         <v>2</v>
       </c>
       <c r="O79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P79" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
       </c>
       <c r="R79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S79" t="n">
         <v>0</v>
@@ -10012,35 +10012,35 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>MISS@TA&amp;M</t>
+          <t>VAN@MIZ</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H117" t="n">
         <v>13</v>
       </c>
       <c r="I117" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J117" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K117" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L117" t="n">
         <v>2</v>
@@ -10058,22 +10058,22 @@
         <v>24</v>
       </c>
       <c r="Q117" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R117" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="S117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T117" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U117" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V117" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118">
@@ -10094,12 +10094,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -10113,49 +10113,49 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I118" t="n">
+        <v>14</v>
+      </c>
+      <c r="J118" t="n">
         <v>4</v>
       </c>
-      <c r="J118" t="n">
-        <v>2</v>
-      </c>
       <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="n">
+        <v>2</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+      <c r="O118" t="n">
+        <v>2</v>
+      </c>
+      <c r="P118" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q118" t="n">
         <v>6</v>
       </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="n">
-        <v>0</v>
-      </c>
-      <c r="O118" t="n">
-        <v>4</v>
-      </c>
-      <c r="P118" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q118" t="n">
-        <v>1</v>
-      </c>
       <c r="R118" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="S118" t="n">
         <v>0</v>
       </c>
       <c r="T118" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U118" t="n">
         <v>2</v>
       </c>
       <c r="V118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
@@ -10176,68 +10176,68 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>VAN@MIZ</t>
+          <t>MISS@TA&amp;M</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H119" t="n">
         <v>10</v>
       </c>
       <c r="I119" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J119" t="n">
         <v>2</v>
       </c>
       <c r="K119" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O119" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P119" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="Q119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R119" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T119" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U119" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V119" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -10601,7 +10601,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H124" t="n">
@@ -10626,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="O124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P124" t="n">
         <v>10</v>
@@ -10832,56 +10832,56 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>AUB@MSST</t>
+          <t>VAN@MIZ</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>12:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H127" t="n">
+        <v>6</v>
+      </c>
+      <c r="I127" t="n">
+        <v>3</v>
+      </c>
+      <c r="J127" t="n">
+        <v>3</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>1</v>
+      </c>
+      <c r="P127" t="n">
         <v>5</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>4</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0</v>
-      </c>
-      <c r="L127" t="n">
-        <v>0</v>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="n">
-        <v>0</v>
-      </c>
-      <c r="O127" t="n">
-        <v>1</v>
-      </c>
-      <c r="P127" t="n">
-        <v>16</v>
-      </c>
       <c r="Q127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S127" t="n">
         <v>0</v>
@@ -10890,10 +10890,10 @@
         <v>0</v>
       </c>
       <c r="U127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -10914,35 +10914,35 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>OU@TENN</t>
+          <t>VAN@MIZ</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H128" t="n">
+        <v>6</v>
+      </c>
+      <c r="I128" t="n">
         <v>4</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
       <c r="J128" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L128" t="n">
         <v>1</v>
@@ -10951,19 +10951,19 @@
         <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O128" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P128" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S128" t="n">
         <v>0</v>
@@ -10975,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="V128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -10996,59 +10996,59 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>AUB@MSST</t>
+          <t>VAN@MIZ</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>12:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>0</v>
       </c>
       <c r="M129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P129" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
       </c>
       <c r="R129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T129" t="n">
         <v>1</v>
@@ -11078,62 +11078,62 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Kai Rogers</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>OU@TENN</t>
+          <t>VAN@MIZ</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P130" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q130" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R130" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T130" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U130" t="n">
         <v>0</v>
@@ -11160,56 +11160,56 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>ARK@ALA</t>
+          <t>OU@TENN</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Final/2OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K131" t="n">
         <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P131" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q131" t="n">
         <v>0</v>
       </c>
       <c r="R131" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S131" t="n">
         <v>0</v>
@@ -11242,38 +11242,38 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Filip Jović</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>VAN@MIZ</t>
+          <t>AUB@MSST</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>10:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H132" t="n">
         <v>3</v>
       </c>
       <c r="I132" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M132" t="n">
         <v>0</v>
@@ -11285,25 +11285,25 @@
         <v>1</v>
       </c>
       <c r="P132" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R132" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U132" t="n">
         <v>0</v>
       </c>
       <c r="V132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -11324,35 +11324,35 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Kai Rogers</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>VAN@MIZ</t>
+          <t>OU@TENN</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L133" t="n">
         <v>0</v>
@@ -11364,16 +11364,16 @@
         <v>1</v>
       </c>
       <c r="O133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P133" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q133" t="n">
         <v>0</v>
       </c>
       <c r="R133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -11406,56 +11406,56 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Filip Jović</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>AUB@MSST</t>
+          <t>ARK@ALA</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L134" t="n">
         <v>0</v>
       </c>
       <c r="M134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O134" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P134" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="Q134" t="n">
         <v>0</v>
       </c>
       <c r="R134" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S134" t="n">
         <v>0</v>
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="V134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -11488,32 +11488,32 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>MISS@TA&amp;M</t>
+          <t>AUB@MSST</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H135" t="n">
         <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K135" t="n">
         <v>0</v>
@@ -11522,34 +11522,34 @@
         <v>0</v>
       </c>
       <c r="M135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P135" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -11570,35 +11570,35 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>VAN@MIZ</t>
+          <t>MISS@TA&amp;M</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H136" t="n">
         <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J136" t="n">
         <v>1</v>
       </c>
       <c r="K136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
         <v>0</v>
@@ -11607,31 +11607,31 @@
         <v>0</v>
       </c>
       <c r="N136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P136" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -11652,12 +11652,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -11667,14 +11667,14 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>12:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H137" t="n">
         <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
         <v>2</v>
@@ -11683,22 +11683,22 @@
         <v>1</v>
       </c>
       <c r="L137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M137" t="n">
         <v>0</v>
       </c>
       <c r="N137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P137" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R137" t="n">
         <v>1</v>
@@ -11707,13 +11707,13 @@
         <v>0</v>
       </c>
       <c r="T137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -11734,68 +11734,68 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>MISS@TA&amp;M</t>
+          <t>AUB@MSST</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J138" t="n">
         <v>2</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L138" t="n">
         <v>0</v>
       </c>
       <c r="M138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P138" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
       </c>
       <c r="R138" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S138" t="n">
         <v>0</v>
       </c>
       <c r="T138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -11816,17 +11816,17 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Ethan Burg</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>OU@TENN</t>
+          <t>MISS@TA&amp;M</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -11838,10 +11838,10 @@
         <v>1</v>
       </c>
       <c r="I139" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K139" t="n">
         <v>0</v>
@@ -11853,31 +11853,31 @@
         <v>0</v>
       </c>
       <c r="N139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P139" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
       </c>
       <c r="R139" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S139" t="n">
         <v>0</v>
       </c>
       <c r="T139" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -11898,29 +11898,29 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Ethan Burg</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>VAN@MIZ</t>
+          <t>OU@TENN</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H140" t="n">
         <v>1</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
@@ -11929,25 +11929,25 @@
         <v>0</v>
       </c>
       <c r="L140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M140" t="n">
         <v>0</v>
       </c>
       <c r="N140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P140" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Q140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S140" t="n">
         <v>0</v>
@@ -11980,22 +11980,22 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>MISS@TA&amp;M</t>
+          <t>AUB@MSST</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H141" t="n">
@@ -12005,7 +12005,7 @@
         <v>3</v>
       </c>
       <c r="J141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K141" t="n">
         <v>1</v>
@@ -12017,31 +12017,31 @@
         <v>0</v>
       </c>
       <c r="N141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O141" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P141" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
       </c>
       <c r="R141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -12062,50 +12062,50 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>AUB@MSST</t>
+          <t>MISS@TA&amp;M</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H142" t="n">
         <v>1</v>
       </c>
       <c r="I142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L142" t="n">
         <v>0</v>
       </c>
       <c r="M142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O142" t="n">
         <v>2</v>
       </c>
       <c r="P142" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -12117,13 +12117,13 @@
         <v>0</v>
       </c>
       <c r="T142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -12159,7 +12159,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H143" t="n">
@@ -12187,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="P143" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q143" t="n">
         <v>0</v>
@@ -12226,22 +12226,22 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Troy Henderson</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>VAN@MIZ</t>
+          <t>OU@TENN</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H144" t="n">
@@ -12251,7 +12251,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K144" t="n">
         <v>0</v>
@@ -12269,13 +12269,13 @@
         <v>0</v>
       </c>
       <c r="P144" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q144" t="n">
         <v>0</v>
       </c>
       <c r="R144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S144" t="n">
         <v>0</v>
@@ -12308,17 +12308,17 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Troy Henderson</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>OU@TENN</t>
+          <t>MISS@TA&amp;M</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -12333,7 +12333,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K145" t="n">
         <v>0</v>
@@ -12345,13 +12345,13 @@
         <v>0</v>
       </c>
       <c r="N145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O145" t="n">
         <v>0</v>
       </c>
       <c r="P145" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q145" t="n">
         <v>0</v>
@@ -12390,26 +12390,26 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>MISS@TA&amp;M</t>
+          <t>VAN@MIZ</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -12424,22 +12424,22 @@
         <v>0</v>
       </c>
       <c r="M146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O146" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P146" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="Q146" t="n">
         <v>0</v>
       </c>
       <c r="R146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S146" t="n">
         <v>0</v>
@@ -12569,7 +12569,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H148" t="n">
@@ -12815,7 +12815,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H151" t="n">
@@ -12979,7 +12979,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>12:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H153" t="n">
@@ -13004,10 +13004,10 @@
         <v>0</v>
       </c>
       <c r="O153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P153" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q153" t="n">
         <v>0</v>
@@ -13061,7 +13061,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>12:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H154" t="n">
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K154" t="n">
         <v>0</v>
@@ -13089,13 +13089,13 @@
         <v>2</v>
       </c>
       <c r="P154" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q154" t="n">
         <v>0</v>
       </c>
       <c r="R154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S154" t="n">
         <v>0</v>
@@ -13143,7 +13143,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>0:00 - 1st Half</t>
+          <t>12:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H155" t="n">
@@ -13240,7 +13240,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -13253,7 +13253,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -13305,7 +13305,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -13318,7 +13318,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-18.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-18.xlsx
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -1171,17 +1171,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>12:15 - 2nd Half</t>
+          <t>3:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q9" t="n">
         <v>5</v>
@@ -1214,10 +1214,10 @@
         <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12:15 - 2nd Half</t>
+          <t>3:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -2058,68 +2058,68 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Trevon Brazile</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ARK@ALA</t>
+          <t>AUB@MSST</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Final/2OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="n">
+        <v>7</v>
+      </c>
+      <c r="J20" t="n">
         <v>11</v>
       </c>
-      <c r="J20" t="n">
-        <v>8</v>
-      </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
         <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2</v>
+      </c>
+      <c r="U20" t="n">
         <v>5</v>
       </c>
-      <c r="R20" t="n">
-        <v>13</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>4</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1</v>
-      </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -2140,68 +2140,68 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>KeShawn Murphy</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>AUB@MSST</t>
+          <t>ARK@ALA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10:50 - 2nd Half</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H21" t="n">
+        <v>14</v>
+      </c>
+      <c r="I21" t="n">
+        <v>11</v>
+      </c>
+      <c r="J21" t="n">
         <v>8</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>13</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
         <v>4</v>
       </c>
-      <c r="J21" t="n">
-        <v>6</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2</v>
-      </c>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -2483,47 +2483,47 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10:50 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I25" t="n">
+        <v>13</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>14</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="n">
         <v>6</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" t="n">
-        <v>9</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2</v>
-      </c>
-      <c r="T25" t="n">
-        <v>3</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2647,20 +2647,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10:50 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J27" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27" t="n">
         <v>1</v>
@@ -2669,19 +2669,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="Q27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R27" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S27" t="n">
         <v>4</v>
@@ -2690,10 +2690,10 @@
         <v>7</v>
       </c>
       <c r="U27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -2811,41 +2811,41 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12:15 - 2nd Half</t>
+          <t>3:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I29" t="n">
+        <v>11</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" t="n">
         <v>9</v>
       </c>
-      <c r="J29" t="n">
-        <v>3</v>
-      </c>
-      <c r="K29" t="n">
-        <v>7</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P29" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Q29" t="n">
         <v>2</v>
       </c>
       <c r="R29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -2854,10 +2854,10 @@
         <v>1</v>
       </c>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V29" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -2893,47 +2893,47 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12:15 - 2nd Half</t>
+          <t>3:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P30" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R30" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -3057,41 +3057,41 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10:50 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J32" t="n">
+        <v>6</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2</v>
+      </c>
+      <c r="P32" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
         <v>5</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>2</v>
-      </c>
-      <c r="P32" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1</v>
-      </c>
-      <c r="R32" t="n">
-        <v>3</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3795,20 +3795,20 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>12:15 - 2nd Half</t>
+          <t>3:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J41" t="n">
         <v>7</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
         <v>1</v>
@@ -3820,16 +3820,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P41" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Q41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R41" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S41" t="n">
         <v>4</v>
@@ -3944,68 +3944,68 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Houston Mallette</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ARK@ALA</t>
+          <t>VAN@MIZ</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Final/2OT</t>
+          <t>3:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H43" t="n">
         <v>10</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J43" t="n">
+        <v>2</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3</v>
+      </c>
+      <c r="O43" t="n">
+        <v>3</v>
+      </c>
+      <c r="P43" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
         <v>4</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>2</v>
-      </c>
-      <c r="P43" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2</v>
-      </c>
-      <c r="R43" t="n">
-        <v>3</v>
-      </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -4026,38 +4026,38 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>OU@TENN</t>
+          <t>ARK@ALA</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I44" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4066,28 +4066,28 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P44" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="Q44" t="n">
         <v>2</v>
       </c>
       <c r="R44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S44" t="n">
         <v>2</v>
       </c>
       <c r="T44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4108,12 +4108,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Jaylen Carey</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4127,49 +4127,49 @@
         </is>
       </c>
       <c r="H45" t="n">
+        <v>9</v>
+      </c>
+      <c r="I45" t="n">
+        <v>9</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
         <v>4</v>
       </c>
-      <c r="I45" t="n">
-        <v>7</v>
-      </c>
-      <c r="J45" t="n">
-        <v>7</v>
-      </c>
-      <c r="K45" t="n">
-        <v>2</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>3</v>
-      </c>
-      <c r="R45" t="n">
-        <v>9</v>
-      </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V45" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -4190,56 +4190,56 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Nick Pringle</t>
+          <t>Jaylen Carey</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ARK@ALA</t>
+          <t>OU@TENN</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Final/2OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R46" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>1</v>
       </c>
       <c r="V46" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -4272,29 +4272,29 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>VAN@MIZ</t>
+          <t>ARK@ALA</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>12:15 - 2nd Half</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -4306,34 +4306,34 @@
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" t="n">
         <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P47" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -5025,47 +5025,47 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>10:50 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H56" t="n">
+        <v>10</v>
+      </c>
+      <c r="I56" t="n">
+        <v>15</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>4</v>
+      </c>
+      <c r="P56" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
         <v>12</v>
       </c>
-      <c r="I56" t="n">
-        <v>12</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" t="n">
-        <v>3</v>
-      </c>
-      <c r="P56" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>3</v>
-      </c>
-      <c r="R56" t="n">
-        <v>6</v>
-      </c>
       <c r="S56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T56" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U56" t="n">
         <v>3</v>
@@ -5681,20 +5681,20 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10:50 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I64" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="J64" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L64" t="n">
         <v>2</v>
@@ -5706,28 +5706,28 @@
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P64" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="Q64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R64" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S64" t="n">
+        <v>10</v>
+      </c>
+      <c r="T64" t="n">
+        <v>16</v>
+      </c>
+      <c r="U64" t="n">
+        <v>6</v>
+      </c>
+      <c r="V64" t="n">
         <v>9</v>
-      </c>
-      <c r="T64" t="n">
-        <v>13</v>
-      </c>
-      <c r="U64" t="n">
-        <v>0</v>
-      </c>
-      <c r="V64" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -6322,68 +6322,68 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Rashaun Agee</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>MISS@TA&amp;M</t>
+          <t>VAN@MIZ</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I72" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J72" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K72" t="n">
         <v>5</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P72" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q72" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R72" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="S72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T72" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U72" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -6404,68 +6404,68 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>AUB@MSST</t>
+          <t>MISS@TA&amp;M</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>10:50 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I73" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J73" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P73" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Q73" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R73" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="S73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T73" t="n">
+        <v>1</v>
+      </c>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
         <v>5</v>
-      </c>
-      <c r="U73" t="n">
-        <v>1</v>
-      </c>
-      <c r="V73" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -6486,68 +6486,68 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>VAN@MIZ</t>
+          <t>AUB@MSST</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>12:15 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I74" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P74" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="Q74" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R74" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="S74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T74" t="n">
+        <v>9</v>
+      </c>
+      <c r="U74" t="n">
         <v>4</v>
       </c>
-      <c r="U74" t="n">
-        <v>2</v>
-      </c>
       <c r="V74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -6650,17 +6650,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>MISS@TA&amp;M</t>
+          <t>AUB@MSST</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -6669,37 +6669,37 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I76" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K76" t="n">
         <v>5</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N76" t="n">
         <v>1</v>
       </c>
       <c r="O76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P76" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="Q76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R76" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S76" t="n">
         <v>2</v>
@@ -6708,10 +6708,10 @@
         <v>4</v>
       </c>
       <c r="U76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -6732,56 +6732,56 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>AUB@MSST</t>
+          <t>MISS@TA&amp;M</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>10:50 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I77" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
         <v>1</v>
       </c>
       <c r="O77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P77" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S77" t="n">
         <v>2</v>
@@ -6790,10 +6790,10 @@
         <v>4</v>
       </c>
       <c r="U77" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V77" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>12:15 - 2nd Half</t>
+          <t>3:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -6854,10 +6854,10 @@
         <v>1</v>
       </c>
       <c r="O78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P78" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q78" t="n">
         <v>2</v>
@@ -6911,17 +6911,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>10:50 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K79" t="n">
         <v>1</v>
@@ -6936,28 +6936,28 @@
         <v>2</v>
       </c>
       <c r="O79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P79" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -10027,14 +10027,14 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>12:15 - 2nd Half</t>
+          <t>3:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H117" t="n">
         <v>13</v>
       </c>
       <c r="I117" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J117" t="n">
         <v>2</v>
@@ -10049,19 +10049,19 @@
         <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P117" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Q117" t="n">
         <v>3</v>
       </c>
       <c r="R117" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S117" t="n">
         <v>2</v>
@@ -10070,10 +10070,10 @@
         <v>5</v>
       </c>
       <c r="U117" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V117" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
@@ -10094,22 +10094,22 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>MISS@TA&amp;M</t>
+          <t>VAN@MIZ</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H118" t="n">
@@ -10119,10 +10119,10 @@
         <v>14</v>
       </c>
       <c r="J118" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>2</v>
@@ -10137,25 +10137,25 @@
         <v>2</v>
       </c>
       <c r="P118" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="Q118" t="n">
         <v>6</v>
       </c>
       <c r="R118" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="S118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T118" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -10176,12 +10176,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -10195,49 +10195,49 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I119" t="n">
+        <v>14</v>
+      </c>
+      <c r="J119" t="n">
         <v>4</v>
       </c>
-      <c r="J119" t="n">
-        <v>2</v>
-      </c>
       <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="n">
+        <v>2</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+      <c r="O119" t="n">
+        <v>2</v>
+      </c>
+      <c r="P119" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q119" t="n">
         <v>6</v>
       </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0</v>
-      </c>
-      <c r="O119" t="n">
-        <v>4</v>
-      </c>
-      <c r="P119" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q119" t="n">
-        <v>1</v>
-      </c>
       <c r="R119" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="S119" t="n">
         <v>0</v>
       </c>
       <c r="T119" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U119" t="n">
         <v>2</v>
       </c>
       <c r="V119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
@@ -10258,35 +10258,35 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>ARK@ALA</t>
+          <t>VAN@MIZ</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Final/2OT</t>
+          <t>3:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I120" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J120" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K120" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>2</v>
@@ -10295,31 +10295,31 @@
         <v>0</v>
       </c>
       <c r="N120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O120" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P120" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="Q120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R120" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T120" t="n">
+        <v>0</v>
+      </c>
+      <c r="U120" t="n">
+        <v>3</v>
+      </c>
+      <c r="V120" t="n">
         <v>4</v>
-      </c>
-      <c r="U120" t="n">
-        <v>1</v>
-      </c>
-      <c r="V120" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -10340,68 +10340,68 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>ARK@ALA</t>
+          <t>MISS@TA&amp;M</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Final/2OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I121" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K121" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O121" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P121" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q121" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R121" t="n">
         <v>5</v>
       </c>
       <c r="S121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T121" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -10422,68 +10422,68 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>MISS@TA&amp;M</t>
+          <t>VAN@MIZ</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H122" t="n">
         <v>9</v>
       </c>
       <c r="I122" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J122" t="n">
         <v>3</v>
       </c>
       <c r="K122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
       <c r="M122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O122" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P122" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q122" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R122" t="n">
         <v>7</v>
       </c>
       <c r="S122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T122" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U122" t="n">
         <v>0</v>
       </c>
       <c r="V122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -10504,35 +10504,35 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>OU@TENN</t>
+          <t>ARK@ALA</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H123" t="n">
+        <v>9</v>
+      </c>
+      <c r="I123" t="n">
         <v>8</v>
       </c>
-      <c r="I123" t="n">
-        <v>7</v>
-      </c>
       <c r="J123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L123" t="n">
         <v>2</v>
@@ -10541,31 +10541,31 @@
         <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O123" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P123" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Q123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R123" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T123" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U123" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -10586,7 +10586,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -10601,53 +10601,53 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>10:50 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I124" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J124" t="n">
+        <v>2</v>
+      </c>
+      <c r="K124" t="n">
         <v>4</v>
       </c>
-      <c r="K124" t="n">
-        <v>1</v>
-      </c>
       <c r="L124" t="n">
         <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O124" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P124" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
       </c>
       <c r="R124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U124" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V124" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125">
@@ -10668,17 +10668,17 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>MISS@TA&amp;M</t>
+          <t>AUB@MSST</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -10687,14 +10687,14 @@
         </is>
       </c>
       <c r="H125" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I125" t="n">
+        <v>2</v>
+      </c>
+      <c r="J125" t="n">
         <v>4</v>
       </c>
-      <c r="J125" t="n">
-        <v>3</v>
-      </c>
       <c r="K125" t="n">
         <v>1</v>
       </c>
@@ -10702,22 +10702,22 @@
         <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P125" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S125" t="n">
         <v>0</v>
@@ -10750,62 +10750,62 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>London Jemison</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>MISS@TA&amp;M</t>
+          <t>ARK@ALA</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I126" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J126" t="n">
+        <v>3</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>2</v>
+      </c>
+      <c r="O126" t="n">
+        <v>2</v>
+      </c>
+      <c r="P126" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q126" t="n">
         <v>4</v>
       </c>
-      <c r="K126" t="n">
-        <v>0</v>
-      </c>
-      <c r="L126" t="n">
-        <v>0</v>
-      </c>
-      <c r="M126" t="n">
-        <v>0</v>
-      </c>
-      <c r="N126" t="n">
-        <v>0</v>
-      </c>
-      <c r="O126" t="n">
-        <v>1</v>
-      </c>
-      <c r="P126" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q126" t="n">
-        <v>1</v>
-      </c>
       <c r="R126" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U126" t="n">
         <v>0</v>
@@ -10832,35 +10832,35 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Travis Perry</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>VAN@MIZ</t>
+          <t>MISS@TA&amp;M</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>12:15 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H127" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I127" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J127" t="n">
         <v>3</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L127" t="n">
         <v>1</v>
@@ -10872,28 +10872,28 @@
         <v>0</v>
       </c>
       <c r="O127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P127" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>3</v>
+      </c>
+      <c r="R127" t="n">
+        <v>7</v>
+      </c>
+      <c r="S127" t="n">
+        <v>2</v>
+      </c>
+      <c r="T127" t="n">
         <v>5</v>
       </c>
-      <c r="Q127" t="n">
-        <v>1</v>
-      </c>
-      <c r="R127" t="n">
-        <v>1</v>
-      </c>
-      <c r="S127" t="n">
-        <v>0</v>
-      </c>
-      <c r="T127" t="n">
-        <v>0</v>
-      </c>
       <c r="U127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -10914,68 +10914,68 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>VAN@MIZ</t>
+          <t>AUB@MSST</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>12:15 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H128" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I128" t="n">
+        <v>5</v>
+      </c>
+      <c r="J128" t="n">
+        <v>5</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="n">
         <v>4</v>
       </c>
-      <c r="J128" t="n">
-        <v>4</v>
-      </c>
-      <c r="K128" t="n">
-        <v>1</v>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="n">
-        <v>0</v>
-      </c>
       <c r="N128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O128" t="n">
         <v>4</v>
       </c>
       <c r="P128" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="Q128" t="n">
         <v>2</v>
       </c>
       <c r="R128" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S128" t="n">
         <v>0</v>
       </c>
       <c r="T128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -10996,57 +10996,57 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>VAN@MIZ</t>
+          <t>OU@TENN</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>12:15 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I129" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>2</v>
+      </c>
+      <c r="L129" t="n">
+        <v>2</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>2</v>
+      </c>
+      <c r="P129" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>2</v>
+      </c>
+      <c r="R129" t="n">
         <v>5</v>
       </c>
-      <c r="K129" t="n">
-        <v>0</v>
-      </c>
-      <c r="L129" t="n">
-        <v>0</v>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="n">
-        <v>0</v>
-      </c>
-      <c r="O129" t="n">
-        <v>0</v>
-      </c>
-      <c r="P129" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q129" t="n">
-        <v>1</v>
-      </c>
-      <c r="R129" t="n">
-        <v>3</v>
-      </c>
       <c r="S129" t="n">
         <v>0</v>
       </c>
@@ -11054,10 +11054,10 @@
         <v>1</v>
       </c>
       <c r="U129" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V129" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
@@ -11078,38 +11078,38 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>VAN@MIZ</t>
+          <t>MISS@TA&amp;M</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>12:15 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I130" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M130" t="n">
         <v>0</v>
@@ -11118,22 +11118,22 @@
         <v>0</v>
       </c>
       <c r="O130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P130" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R130" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T130" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U130" t="n">
         <v>0</v>
@@ -11160,17 +11160,17 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>OU@TENN</t>
+          <t>AUB@MSST</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -11179,37 +11179,37 @@
         </is>
       </c>
       <c r="H131" t="n">
+        <v>8</v>
+      </c>
+      <c r="I131" t="n">
+        <v>6</v>
+      </c>
+      <c r="J131" t="n">
         <v>4</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>3</v>
-      </c>
       <c r="K131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
       <c r="M131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N131" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P131" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Q131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R131" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S131" t="n">
         <v>0</v>
@@ -11218,10 +11218,10 @@
         <v>0</v>
       </c>
       <c r="U131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -11242,65 +11242,65 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Filip Jović</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>AUB@MSST</t>
+          <t>VAN@MIZ</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>10:50 - 2nd Half</t>
+          <t>3:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J132" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
         <v>0</v>
       </c>
       <c r="M132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O132" t="n">
         <v>1</v>
       </c>
       <c r="P132" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R132" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S132" t="n">
         <v>0</v>
       </c>
       <c r="T132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V132" t="n">
         <v>2</v>
@@ -11324,17 +11324,17 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Kai Rogers</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>OU@TENN</t>
+          <t>MISS@TA&amp;M</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -11343,37 +11343,37 @@
         </is>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>0</v>
       </c>
       <c r="M133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P133" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="Q133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -11406,56 +11406,56 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>ARK@ALA</t>
+          <t>VAN@MIZ</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Final/2OT</t>
+          <t>3:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J134" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
       <c r="N134" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O134" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P134" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R134" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S134" t="n">
         <v>0</v>
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="V134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -11488,68 +11488,68 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>AUB@MSST</t>
+          <t>OU@TENN</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>10:50 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K135" t="n">
         <v>0</v>
       </c>
       <c r="L135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P135" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q135" t="n">
         <v>0</v>
       </c>
       <c r="R135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S135" t="n">
         <v>0</v>
       </c>
       <c r="T135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -11570,17 +11570,17 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Filip Jović</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>MISS@TA&amp;M</t>
+          <t>AUB@MSST</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L136" t="n">
         <v>0</v>
@@ -11607,31 +11607,31 @@
         <v>0</v>
       </c>
       <c r="N136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P136" t="n">
         <v>11</v>
       </c>
       <c r="Q136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U136" t="n">
         <v>0</v>
       </c>
       <c r="V136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -11652,32 +11652,32 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Kai Rogers</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>VAN@MIZ</t>
+          <t>OU@TENN</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>12:15 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K137" t="n">
         <v>1</v>
@@ -11686,34 +11686,34 @@
         <v>0</v>
       </c>
       <c r="M137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P137" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q137" t="n">
         <v>0</v>
       </c>
       <c r="R137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S137" t="n">
         <v>0</v>
       </c>
       <c r="T137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -11734,35 +11734,35 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>AUB@MSST</t>
+          <t>ARK@ALA</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>10:50 - 2nd Half</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
         <v>0</v>
@@ -11771,19 +11771,19 @@
         <v>1</v>
       </c>
       <c r="N138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P138" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Q138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R138" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S138" t="n">
         <v>0</v>
@@ -11816,33 +11816,33 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>MISS@TA&amp;M</t>
+          <t>VAN@MIZ</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I139" t="n">
+        <v>3</v>
+      </c>
+      <c r="J139" t="n">
         <v>4</v>
       </c>
-      <c r="J139" t="n">
-        <v>2</v>
-      </c>
       <c r="K139" t="n">
         <v>0</v>
       </c>
@@ -11850,16 +11850,16 @@
         <v>0</v>
       </c>
       <c r="M139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N139" t="n">
         <v>0</v>
       </c>
       <c r="O139" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P139" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -11868,16 +11868,16 @@
         <v>6</v>
       </c>
       <c r="S139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T139" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -11898,17 +11898,17 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Ethan Burg</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>OU@TENN</t>
+          <t>MISS@TA&amp;M</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -11917,13 +11917,13 @@
         </is>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K140" t="n">
         <v>0</v>
@@ -11935,13 +11935,13 @@
         <v>0</v>
       </c>
       <c r="N140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P140" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -11950,10 +11950,10 @@
         <v>1</v>
       </c>
       <c r="S140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U140" t="n">
         <v>0</v>
@@ -11980,32 +11980,32 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>AUB@MSST</t>
+          <t>VAN@MIZ</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>10:50 - 2nd Half</t>
+          <t>3:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K141" t="n">
         <v>1</v>
@@ -12017,31 +12017,31 @@
         <v>0</v>
       </c>
       <c r="N141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O141" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P141" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R141" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
@@ -12062,7 +12062,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -12084,13 +12084,13 @@
         <v>1</v>
       </c>
       <c r="I142" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J142" t="n">
         <v>2</v>
       </c>
       <c r="K142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
         <v>0</v>
@@ -12099,28 +12099,28 @@
         <v>0</v>
       </c>
       <c r="N142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P142" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
       </c>
       <c r="R142" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>
       </c>
       <c r="T142" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V142" t="n">
         <v>2</v>
@@ -12144,29 +12144,29 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>AUB@MSST</t>
+          <t>VAN@MIZ</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>10:50 - 2nd Half</t>
+          <t>3:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H143" t="n">
         <v>1</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J143" t="n">
         <v>1</v>
@@ -12181,25 +12181,25 @@
         <v>0</v>
       </c>
       <c r="N143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P143" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Q143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R143" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U143" t="n">
         <v>0</v>
@@ -12226,7 +12226,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Troy Henderson</t>
+          <t>Ethan Burg</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -12248,10 +12248,10 @@
         <v>1</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144" t="n">
         <v>0</v>
@@ -12263,19 +12263,19 @@
         <v>0</v>
       </c>
       <c r="N144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P144" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S144" t="n">
         <v>0</v>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -12330,13 +12330,13 @@
         <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J145" t="n">
         <v>2</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L145" t="n">
         <v>0</v>
@@ -12345,31 +12345,31 @@
         <v>0</v>
       </c>
       <c r="N145" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P145" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Q145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S145" t="n">
         <v>0</v>
       </c>
       <c r="T145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -12390,32 +12390,32 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>VAN@MIZ</t>
+          <t>AUB@MSST</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>12:15 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K146" t="n">
         <v>0</v>
@@ -12424,22 +12424,22 @@
         <v>0</v>
       </c>
       <c r="M146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P146" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q146" t="n">
         <v>0</v>
       </c>
       <c r="R146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S146" t="n">
         <v>0</v>
@@ -12472,17 +12472,17 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Troy Henderson</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>MISS@TA&amp;M</t>
+          <t>OU@TENN</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -12491,13 +12491,13 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147" t="n">
         <v>0</v>
@@ -12515,7 +12515,7 @@
         <v>0</v>
       </c>
       <c r="P147" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q147" t="n">
         <v>0</v>
@@ -12530,10 +12530,10 @@
         <v>0</v>
       </c>
       <c r="U147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -12554,32 +12554,32 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Blake Muschalek</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>AUB@MSST</t>
+          <t>MISS@TA&amp;M</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>10:50 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K148" t="n">
         <v>0</v>
@@ -12591,13 +12591,13 @@
         <v>0</v>
       </c>
       <c r="N148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O148" t="n">
         <v>0</v>
       </c>
       <c r="P148" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q148" t="n">
         <v>0</v>
@@ -12636,29 +12636,29 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Elmir Džafić</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>ARK@ALA</t>
+          <t>MISS@TA&amp;M</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Final/2OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -12679,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="P149" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q149" t="n">
         <v>0</v>
@@ -12694,10 +12694,10 @@
         <v>0</v>
       </c>
       <c r="U149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -12718,22 +12718,22 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Jaden Karuletwa</t>
+          <t>Blake Muschalek</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>ARK@ALA</t>
+          <t>AUB@MSST</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Final/2OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H150" t="n">
@@ -12761,7 +12761,7 @@
         <v>0</v>
       </c>
       <c r="P150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q150" t="n">
         <v>0</v>
@@ -12800,22 +12800,22 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Elmir Džafić</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>AUB@MSST</t>
+          <t>ARK@ALA</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>10:50 - 2nd Half</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H151" t="n">
@@ -12840,10 +12840,10 @@
         <v>0</v>
       </c>
       <c r="O151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q151" t="n">
         <v>0</v>
@@ -12882,12 +12882,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Jaden Karuletwa</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -12907,7 +12907,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K152" t="n">
         <v>0</v>
@@ -12919,13 +12919,13 @@
         <v>0</v>
       </c>
       <c r="N152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P152" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q152" t="n">
         <v>0</v>
@@ -12964,22 +12964,22 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>VAN@MIZ</t>
+          <t>AUB@MSST</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>12:15 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H153" t="n">
@@ -12989,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K153" t="n">
         <v>0</v>
@@ -13004,16 +13004,16 @@
         <v>0</v>
       </c>
       <c r="O153" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P153" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q153" t="n">
         <v>0</v>
       </c>
       <c r="R153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S153" t="n">
         <v>0</v>
@@ -13046,26 +13046,26 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Noah Williamson</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>VAN@MIZ</t>
+          <t>ARK@ALA</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>12:15 - 2nd Half</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -13083,25 +13083,25 @@
         <v>0</v>
       </c>
       <c r="N154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P154" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="Q154" t="n">
         <v>0</v>
       </c>
       <c r="R154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S154" t="n">
         <v>0</v>
       </c>
       <c r="T154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U154" t="n">
         <v>0</v>
@@ -13143,7 +13143,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>12:15 - 2nd Half</t>
+          <t>3:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H155" t="n">
@@ -13236,11 +13236,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Boozers Losers</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -13249,11 +13249,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
@@ -13275,24 +13275,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -13301,11 +13301,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -13314,14 +13314,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-18.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-18.xlsx
@@ -1171,7 +1171,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3:02 - 2nd Half</t>
+          <t>0:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3:02 - 2nd Half</t>
+          <t>0:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -2811,14 +2811,14 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3:02 - 2nd Half</t>
+          <t>0:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J29" t="n">
         <v>3</v>
@@ -2833,13 +2833,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O29" t="n">
         <v>2</v>
       </c>
       <c r="P29" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q29" t="n">
         <v>2</v>
@@ -2854,10 +2854,10 @@
         <v>1</v>
       </c>
       <c r="U29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -2893,47 +2893,47 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3:02 - 2nd Half</t>
+          <t>0:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I30" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J30" t="n">
+        <v>5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q30" t="n">
         <v>4</v>
       </c>
-      <c r="K30" t="n">
-        <v>3</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2</v>
-      </c>
-      <c r="P30" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3</v>
-      </c>
       <c r="R30" t="n">
+        <v>11</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="n">
         <v>9</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2</v>
-      </c>
-      <c r="T30" t="n">
-        <v>7</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -3795,11 +3795,11 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>3:02 - 2nd Half</t>
+          <t>0:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I41" t="n">
         <v>19</v>
@@ -3823,13 +3823,13 @@
         <v>3</v>
       </c>
       <c r="P41" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q41" t="n">
         <v>6</v>
       </c>
       <c r="R41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S41" t="n">
         <v>4</v>
@@ -3959,17 +3959,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>3:02 - 2nd Half</t>
+          <t>0:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I43" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3987,7 +3987,7 @@
         <v>3</v>
       </c>
       <c r="P43" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q43" t="n">
         <v>3</v>
@@ -4002,10 +4002,10 @@
         <v>2</v>
       </c>
       <c r="U43" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V43" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -6337,14 +6337,14 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>3:02 - 2nd Half</t>
+          <t>0:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I72" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J72" t="n">
         <v>2</v>
@@ -6353,7 +6353,7 @@
         <v>5</v>
       </c>
       <c r="L72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -6362,16 +6362,16 @@
         <v>2</v>
       </c>
       <c r="O72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P72" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q72" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R72" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S72" t="n">
         <v>2</v>
@@ -6380,10 +6380,10 @@
         <v>6</v>
       </c>
       <c r="U72" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V72" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>3:02 - 2nd Half</t>
+          <t>0:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -9848,68 +9848,68 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>MISS@TA&amp;M</t>
+          <t>VAN@MIZ</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K115" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M115" t="n">
         <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P115" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Q115" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R115" t="n">
+        <v>10</v>
+      </c>
+      <c r="S115" t="n">
+        <v>2</v>
+      </c>
+      <c r="T115" t="n">
         <v>5</v>
       </c>
-      <c r="S115" t="n">
-        <v>2</v>
-      </c>
-      <c r="T115" t="n">
-        <v>3</v>
-      </c>
       <c r="U115" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V115" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116">
@@ -9930,68 +9930,68 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>OU@TENN</t>
+          <t>VAN@MIZ</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I116" t="n">
+        <v>16</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>2</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+      <c r="O116" t="n">
+        <v>3</v>
+      </c>
+      <c r="P116" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>6</v>
+      </c>
+      <c r="R116" t="n">
+        <v>9</v>
+      </c>
+      <c r="S116" t="n">
+        <v>2</v>
+      </c>
+      <c r="T116" t="n">
         <v>4</v>
       </c>
-      <c r="J116" t="n">
-        <v>5</v>
-      </c>
-      <c r="K116" t="n">
-        <v>5</v>
-      </c>
-      <c r="L116" t="n">
-        <v>0</v>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="n">
-        <v>0</v>
-      </c>
-      <c r="O116" t="n">
-        <v>4</v>
-      </c>
-      <c r="P116" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q116" t="n">
-        <v>2</v>
-      </c>
-      <c r="R116" t="n">
-        <v>4</v>
-      </c>
-      <c r="S116" t="n">
-        <v>0</v>
-      </c>
-      <c r="T116" t="n">
-        <v>2</v>
-      </c>
       <c r="U116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -10012,68 +10012,68 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>VAN@MIZ</t>
+          <t>MISS@TA&amp;M</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>3:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I117" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K117" t="n">
+        <v>2</v>
+      </c>
+      <c r="L117" t="n">
+        <v>3</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>2</v>
+      </c>
+      <c r="P117" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>4</v>
+      </c>
+      <c r="R117" t="n">
         <v>5</v>
       </c>
-      <c r="L117" t="n">
-        <v>2</v>
-      </c>
-      <c r="M117" t="n">
-        <v>0</v>
-      </c>
-      <c r="N117" t="n">
-        <v>2</v>
-      </c>
-      <c r="O117" t="n">
-        <v>3</v>
-      </c>
-      <c r="P117" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>3</v>
-      </c>
-      <c r="R117" t="n">
-        <v>10</v>
-      </c>
       <c r="S117" t="n">
         <v>2</v>
       </c>
       <c r="T117" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U117" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V117" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -10094,62 +10094,62 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>VAN@MIZ</t>
+          <t>OU@TENN</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>3:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H118" t="n">
         <v>13</v>
       </c>
       <c r="I118" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J118" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O118" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P118" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="Q118" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R118" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T118" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U118" t="n">
         <v>0</v>
@@ -10273,7 +10273,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>3:02 - 2nd Half</t>
+          <t>0:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H120" t="n">
@@ -10298,10 +10298,10 @@
         <v>0</v>
       </c>
       <c r="O120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P120" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -10437,7 +10437,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>3:02 - 2nd Half</t>
+          <t>0:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H122" t="n">
@@ -10465,7 +10465,7 @@
         <v>4</v>
       </c>
       <c r="P122" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q122" t="n">
         <v>4</v>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>3:02 - 2nd Half</t>
+          <t>0:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H132" t="n">
@@ -11421,7 +11421,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>3:02 - 2nd Half</t>
+          <t>0:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H134" t="n">
@@ -11570,35 +11570,35 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Filip Jović</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>AUB@MSST</t>
+          <t>VAN@MIZ</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H136" t="n">
         <v>3</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
         <v>0</v>
@@ -11607,31 +11607,31 @@
         <v>0</v>
       </c>
       <c r="N136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P136" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R136" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T136" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U136" t="n">
         <v>0</v>
       </c>
       <c r="V136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -11652,17 +11652,17 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Kai Rogers</t>
+          <t>Filip Jović</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>OU@TENN</t>
+          <t>AUB@MSST</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -11677,25 +11677,25 @@
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L137" t="n">
         <v>0</v>
       </c>
       <c r="M137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P137" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q137" t="n">
         <v>0</v>
@@ -11713,7 +11713,7 @@
         <v>0</v>
       </c>
       <c r="V137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -11734,22 +11734,22 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Kai Rogers</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>ARK@ALA</t>
+          <t>OU@TENN</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Final/2OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H138" t="n">
@@ -11759,31 +11759,31 @@
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L138" t="n">
         <v>0</v>
       </c>
       <c r="M138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N138" t="n">
         <v>1</v>
       </c>
       <c r="O138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P138" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q138" t="n">
         <v>0</v>
       </c>
       <c r="R138" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S138" t="n">
         <v>0</v>
@@ -11816,62 +11816,62 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>VAN@MIZ</t>
+          <t>ARK@ALA</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>3:02 - 2nd Half</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H139" t="n">
         <v>3</v>
       </c>
       <c r="I139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J139" t="n">
+        <v>7</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+      <c r="O139" t="n">
+        <v>3</v>
+      </c>
+      <c r="P139" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R139" t="n">
         <v>4</v>
       </c>
-      <c r="K139" t="n">
-        <v>0</v>
-      </c>
-      <c r="L139" t="n">
-        <v>0</v>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="n">
-        <v>0</v>
-      </c>
-      <c r="O139" t="n">
-        <v>3</v>
-      </c>
-      <c r="P139" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q139" t="n">
-        <v>1</v>
-      </c>
-      <c r="R139" t="n">
-        <v>6</v>
-      </c>
       <c r="S139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U139" t="n">
         <v>0</v>
@@ -11898,32 +11898,32 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>MISS@TA&amp;M</t>
+          <t>VAN@MIZ</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I140" t="n">
         <v>3</v>
       </c>
       <c r="J140" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K140" t="n">
         <v>0</v>
@@ -11932,13 +11932,13 @@
         <v>0</v>
       </c>
       <c r="M140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O140" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P140" t="n">
         <v>11</v>
@@ -11947,7 +11947,7 @@
         <v>1</v>
       </c>
       <c r="R140" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S140" t="n">
         <v>1</v>
@@ -11980,35 +11980,35 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>VAN@MIZ</t>
+          <t>MISS@TA&amp;M</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>3:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H141" t="n">
         <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>0</v>
@@ -12017,31 +12017,31 @@
         <v>0</v>
       </c>
       <c r="N141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P141" t="n">
         <v>11</v>
       </c>
       <c r="Q141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R141" t="n">
         <v>1</v>
       </c>
       <c r="S141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T141" t="n">
         <v>1</v>
       </c>
       <c r="U141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -12062,35 +12062,35 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>MISS@TA&amp;M</t>
+          <t>VAN@MIZ</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J142" t="n">
         <v>2</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L142" t="n">
         <v>0</v>
@@ -12102,25 +12102,25 @@
         <v>0</v>
       </c>
       <c r="O142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P142" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R142" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>
       </c>
       <c r="T142" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V142" t="n">
         <v>2</v>
@@ -12144,32 +12144,32 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>VAN@MIZ</t>
+          <t>MISS@TA&amp;M</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>3:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H143" t="n">
         <v>1</v>
       </c>
       <c r="I143" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K143" t="n">
         <v>0</v>
@@ -12181,10 +12181,10 @@
         <v>0</v>
       </c>
       <c r="N143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P143" t="n">
         <v>18</v>
@@ -12193,19 +12193,19 @@
         <v>1</v>
       </c>
       <c r="R143" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -13143,7 +13143,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>3:02 - 2nd Half</t>
+          <t>0:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H155" t="n">
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
@@ -13279,7 +13279,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-18.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-18.xlsx
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0:06 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0:06 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0:06 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0:06 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0:06 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0:06 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0:06 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0:06 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -9863,7 +9863,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>0:06 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H115" t="n">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>0:06 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H116" t="n">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>0:06 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H120" t="n">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>0:06 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H122" t="n">
@@ -11257,7 +11257,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>0:06 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H132" t="n">
@@ -11421,7 +11421,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>0:06 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H134" t="n">
@@ -11585,7 +11585,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>0:06 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H136" t="n">
@@ -11913,7 +11913,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>0:06 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H140" t="n">
@@ -12077,7 +12077,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>0:06 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H142" t="n">
@@ -13007,7 +13007,7 @@
         <v>3</v>
       </c>
       <c r="P153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q153" t="n">
         <v>0</v>
@@ -13143,7 +13143,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>0:06 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H155" t="n">
